--- a/test/danh_sach_sinh_vien.xlsx
+++ b/test/danh_sach_sinh_vien.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLSV-KQHT\Backend\quanlysinhvien-ketquahoctap_backend\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B649173-4E80-4B1B-A0B1-ACB56D5CEDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0424BC-A1BE-4A5A-B42C-7583F6548B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="463">
   <si>
     <t>STT</t>
   </si>
@@ -55,502 +55,1360 @@
     <t>Mã lớp</t>
   </si>
   <si>
-    <t>Nguyễn Đình Long</t>
-  </si>
-  <si>
-    <t>12/11/2004</t>
+    <t>Huỳnh Bích Ngọc Quỳnh</t>
+  </si>
+  <si>
+    <t>01/02/1998</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>huynhbichngocquynh42933@gmail.com</t>
+  </si>
+  <si>
+    <t>0031342933</t>
+  </si>
+  <si>
+    <t>01/09/2021</t>
+  </si>
+  <si>
+    <t>DANG_HOC</t>
+  </si>
+  <si>
+    <t>Đàm Bích Ngọc Vy</t>
+  </si>
+  <si>
+    <t>07/07/2001</t>
+  </si>
+  <si>
+    <t>đambichngocvy87088@gmail.com</t>
+  </si>
+  <si>
+    <t>0727687088</t>
+  </si>
+  <si>
+    <t>Trần Văn Long</t>
+  </si>
+  <si>
+    <t>07/03/2000</t>
   </si>
   <si>
     <t>NAM</t>
   </si>
   <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>nguyenđinhlong00279@gmail.com</t>
-  </si>
-  <si>
-    <t>0305000279</t>
-  </si>
-  <si>
-    <t>01/09/2021</t>
-  </si>
-  <si>
-    <t>DANG_HOC</t>
-  </si>
-  <si>
-    <t>Lý Đình Tài</t>
-  </si>
-  <si>
-    <t>23/09/2002</t>
-  </si>
-  <si>
-    <t>lyđinhtai70014@gmail.com</t>
-  </si>
-  <si>
-    <t>0432770014</t>
-  </si>
-  <si>
-    <t>Nguyễn Nhật Đạt</t>
+    <t>tranvanlong62665@gmail.com</t>
+  </si>
+  <si>
+    <t>0673262665</t>
+  </si>
+  <si>
+    <t>Lê Thảo Linh</t>
+  </si>
+  <si>
+    <t>04/11/2002</t>
+  </si>
+  <si>
+    <t>lethaolinh06975@gmail.com</t>
+  </si>
+  <si>
+    <t>0312406975</t>
+  </si>
+  <si>
+    <t>Võ Vân Nhi</t>
+  </si>
+  <si>
+    <t>24/01/2001</t>
+  </si>
+  <si>
+    <t>vovannhi84277@gmail.com</t>
+  </si>
+  <si>
+    <t>0949384277</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Ánh</t>
+  </si>
+  <si>
+    <t>13/05/2000</t>
+  </si>
+  <si>
+    <t>nguyenhonganh26686@gmail.com</t>
+  </si>
+  <si>
+    <t>0705626686</t>
+  </si>
+  <si>
+    <t>Lý Trung Đạt</t>
+  </si>
+  <si>
+    <t>12/09/1999</t>
+  </si>
+  <si>
+    <t>lytrungđat94209@gmail.com</t>
+  </si>
+  <si>
+    <t>0926794209</t>
+  </si>
+  <si>
+    <t>Trần Tuyết Ngọc</t>
+  </si>
+  <si>
+    <t>01/11/2003</t>
+  </si>
+  <si>
+    <t>trantuyetngoc58567@gmail.com</t>
+  </si>
+  <si>
+    <t>0440858567</t>
+  </si>
+  <si>
+    <t>Lê Diệu Hà</t>
+  </si>
+  <si>
+    <t>26/01/2000</t>
+  </si>
+  <si>
+    <t>ledieuha35953@gmail.com</t>
+  </si>
+  <si>
+    <t>0928235953</t>
+  </si>
+  <si>
+    <t>Đặng Kim Lan</t>
+  </si>
+  <si>
+    <t>26/09/2005</t>
+  </si>
+  <si>
+    <t>đangkimlan56854@gmail.com</t>
+  </si>
+  <si>
+    <t>0977856854</t>
+  </si>
+  <si>
+    <t>Trương Trọng Bình</t>
+  </si>
+  <si>
+    <t>14/09/1999</t>
+  </si>
+  <si>
+    <t>truongtrongbinh70984@gmail.com</t>
+  </si>
+  <si>
+    <t>0667170984</t>
+  </si>
+  <si>
+    <t>Trương Bảo Ngọc Phương</t>
+  </si>
+  <si>
+    <t>09/01/2004</t>
+  </si>
+  <si>
+    <t>truongbaongocphuong68002@gmail.com</t>
+  </si>
+  <si>
+    <t>0287768002</t>
+  </si>
+  <si>
+    <t>Lý Phúc Nam</t>
+  </si>
+  <si>
+    <t>16/06/2004</t>
+  </si>
+  <si>
+    <t>lyphucnam30312@gmail.com</t>
+  </si>
+  <si>
+    <t>0052030312</t>
+  </si>
+  <si>
+    <t>Trương Vy Ngọc</t>
+  </si>
+  <si>
+    <t>07/12/2001</t>
+  </si>
+  <si>
+    <t>truongvyngoc58040@gmail.com</t>
+  </si>
+  <si>
+    <t>0887358040</t>
+  </si>
+  <si>
+    <t>Đặng Công Phong</t>
+  </si>
+  <si>
+    <t>22/08/1998</t>
+  </si>
+  <si>
+    <t>đangcongphong38936@gmail.com</t>
+  </si>
+  <si>
+    <t>0713038936</t>
+  </si>
+  <si>
+    <t>Huỳnh Trọng Thiện</t>
+  </si>
+  <si>
+    <t>07/12/1998</t>
+  </si>
+  <si>
+    <t>huynhtrongthien75619@gmail.com</t>
+  </si>
+  <si>
+    <t>0407775619</t>
+  </si>
+  <si>
+    <t>Đặng Khánh Tài</t>
+  </si>
+  <si>
+    <t>02/02/2004</t>
+  </si>
+  <si>
+    <t>đangkhanhtai24424@gmail.com</t>
+  </si>
+  <si>
+    <t>0509724424</t>
+  </si>
+  <si>
+    <t>Đặng Bích Lan</t>
+  </si>
+  <si>
+    <t>09/02/2000</t>
+  </si>
+  <si>
+    <t>đangbichlan29694@gmail.com</t>
+  </si>
+  <si>
+    <t>0882629694</t>
+  </si>
+  <si>
+    <t>Lê Công Thắng</t>
+  </si>
+  <si>
+    <t>11/05/2003</t>
+  </si>
+  <si>
+    <t>lecongthang74142@gmail.com</t>
+  </si>
+  <si>
+    <t>0305374142</t>
+  </si>
+  <si>
+    <t>Võ Trúc Hương</t>
+  </si>
+  <si>
+    <t>17/06/1999</t>
+  </si>
+  <si>
+    <t>votruchuong47656@gmail.com</t>
+  </si>
+  <si>
+    <t>0823447656</t>
+  </si>
+  <si>
+    <t>Huỳnh Khánh Nhi</t>
+  </si>
+  <si>
+    <t>20/06/2004</t>
+  </si>
+  <si>
+    <t>huynhkhanhnhi25124@gmail.com</t>
+  </si>
+  <si>
+    <t>0465025124</t>
+  </si>
+  <si>
+    <t>Huỳnh Sa Quỳnh</t>
+  </si>
+  <si>
+    <t>16/04/2000</t>
+  </si>
+  <si>
+    <t>huynhsaquynh86520@gmail.com</t>
+  </si>
+  <si>
+    <t>0643086520</t>
+  </si>
+  <si>
+    <t>Đặng Khánh Hùng</t>
+  </si>
+  <si>
+    <t>23/02/2004</t>
+  </si>
+  <si>
+    <t>đangkhanhhung60542@gmail.com</t>
+  </si>
+  <si>
+    <t>0621360542</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuyết Hà</t>
+  </si>
+  <si>
+    <t>03/01/2001</t>
+  </si>
+  <si>
+    <t>nguyentuyetha21655@gmail.com</t>
+  </si>
+  <si>
+    <t>0474821655</t>
+  </si>
+  <si>
+    <t>Võ Nhi Ngọc</t>
+  </si>
+  <si>
+    <t>21/09/2003</t>
+  </si>
+  <si>
+    <t>vonhingoc57585@gmail.com</t>
+  </si>
+  <si>
+    <t>0400257585</t>
+  </si>
+  <si>
+    <t>Đặng Anh Đạt</t>
+  </si>
+  <si>
+    <t>07/01/2001</t>
+  </si>
+  <si>
+    <t>đanganhđat70698@gmail.com</t>
+  </si>
+  <si>
+    <t>0971770698</t>
+  </si>
+  <si>
+    <t>Trương Quỳnh Lan</t>
+  </si>
+  <si>
+    <t>19/09/2000</t>
+  </si>
+  <si>
+    <t>truongquynhlan28082@gmail.com</t>
+  </si>
+  <si>
+    <t>0150528082</t>
+  </si>
+  <si>
+    <t>Trần Văn Sơn</t>
+  </si>
+  <si>
+    <t>23/11/2005</t>
+  </si>
+  <si>
+    <t>tranvanson36876@gmail.com</t>
+  </si>
+  <si>
+    <t>0842836876</t>
+  </si>
+  <si>
+    <t>Lý Như Trang</t>
+  </si>
+  <si>
+    <t>17/10/2003</t>
+  </si>
+  <si>
+    <t>lynhutrang41356@gmail.com</t>
+  </si>
+  <si>
+    <t>0589241356</t>
+  </si>
+  <si>
+    <t>Huỳnh Tuyết Hà</t>
+  </si>
+  <si>
+    <t>15/09/2005</t>
+  </si>
+  <si>
+    <t>huynhtuyetha27888@gmail.com</t>
+  </si>
+  <si>
+    <t>0078027888</t>
+  </si>
+  <si>
+    <t>Đặng Thanh Trang</t>
+  </si>
+  <si>
+    <t>15/03/2005</t>
+  </si>
+  <si>
+    <t>đangthanhtrang92446@gmail.com</t>
+  </si>
+  <si>
+    <t>0122292446</t>
+  </si>
+  <si>
+    <t>Trương Hoàng Phong</t>
+  </si>
+  <si>
+    <t>14/01/1999</t>
+  </si>
+  <si>
+    <t>truonghoangphong19906@gmail.com</t>
+  </si>
+  <si>
+    <t>0215619906</t>
+  </si>
+  <si>
+    <t>Lê Diệu Linh Diệp</t>
+  </si>
+  <si>
+    <t>18/06/2003</t>
+  </si>
+  <si>
+    <t>ledieulinhdiep03103@gmail.com</t>
+  </si>
+  <si>
+    <t>0095003103</t>
+  </si>
+  <si>
+    <t>Trần Hữu Long</t>
+  </si>
+  <si>
+    <t>19/12/1999</t>
+  </si>
+  <si>
+    <t>tranhuulong19631@gmail.com</t>
+  </si>
+  <si>
+    <t>0243419631</t>
+  </si>
+  <si>
+    <t>Đàm Minh Quân</t>
+  </si>
+  <si>
+    <t>10/06/2001</t>
+  </si>
+  <si>
+    <t>đamminhquan97382@gmail.com</t>
+  </si>
+  <si>
+    <t>0592397382</t>
+  </si>
+  <si>
+    <t>Trương Ái Phương</t>
+  </si>
+  <si>
+    <t>23/09/1998</t>
+  </si>
+  <si>
+    <t>truongaiphuong16660@gmail.com</t>
+  </si>
+  <si>
+    <t>0596716660</t>
+  </si>
+  <si>
+    <t>Trương Mai Thảo</t>
+  </si>
+  <si>
+    <t>25/01/2002</t>
+  </si>
+  <si>
+    <t>truongmaithao33237@gmail.com</t>
+  </si>
+  <si>
+    <t>0013533237</t>
+  </si>
+  <si>
+    <t>Lê Đức Tuấn</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>leđuctuan09285@gmail.com</t>
+  </si>
+  <si>
+    <t>0390009285</t>
+  </si>
+  <si>
+    <t>Lê Tấn Long</t>
+  </si>
+  <si>
+    <t>25/11/2000</t>
+  </si>
+  <si>
+    <t>letanlong59899@gmail.com</t>
+  </si>
+  <si>
+    <t>0051259899</t>
+  </si>
+  <si>
+    <t>Lê Nhật Sơn</t>
+  </si>
+  <si>
+    <t>19/05/1999</t>
+  </si>
+  <si>
+    <t>lenhatson19752@gmail.com</t>
+  </si>
+  <si>
+    <t>0229619752</t>
+  </si>
+  <si>
+    <t>Trương Thị Thảo</t>
+  </si>
+  <si>
+    <t>14/09/2001</t>
+  </si>
+  <si>
+    <t>truongthithao25288@gmail.com</t>
+  </si>
+  <si>
+    <t>0349725288</t>
+  </si>
+  <si>
+    <t>Võ Ánh Nhi</t>
+  </si>
+  <si>
+    <t>17/08/1999</t>
+  </si>
+  <si>
+    <t>voanhnhi80229@gmail.com</t>
+  </si>
+  <si>
+    <t>0331980229</t>
+  </si>
+  <si>
+    <t>Võ Khánh Thiện</t>
+  </si>
+  <si>
+    <t>03/08/2001</t>
+  </si>
+  <si>
+    <t>vokhanhthien42386@gmail.com</t>
+  </si>
+  <si>
+    <t>0376942386</t>
+  </si>
+  <si>
+    <t>Lê Anh Khang</t>
+  </si>
+  <si>
+    <t>21/04/2003</t>
+  </si>
+  <si>
+    <t>leanhkhang30227@gmail.com</t>
+  </si>
+  <si>
+    <t>0428830227</t>
+  </si>
+  <si>
+    <t>Lê Trọng Anh</t>
+  </si>
+  <si>
+    <t>25/08/2004</t>
+  </si>
+  <si>
+    <t>letronganh07747@gmail.com</t>
+  </si>
+  <si>
+    <t>0387107747</t>
+  </si>
+  <si>
+    <t>Đặng Tường Quỳnh</t>
+  </si>
+  <si>
+    <t>13/02/2004</t>
+  </si>
+  <si>
+    <t>đangtuongquynh58642@gmail.com</t>
+  </si>
+  <si>
+    <t>0403658642</t>
+  </si>
+  <si>
+    <t>Đàm Quốc Long</t>
+  </si>
+  <si>
+    <t>04/07/2004</t>
+  </si>
+  <si>
+    <t>đamquoclong89253@gmail.com</t>
+  </si>
+  <si>
+    <t>0718289253</t>
+  </si>
+  <si>
+    <t>Trần Sa Linh</t>
+  </si>
+  <si>
+    <t>13/06/2002</t>
+  </si>
+  <si>
+    <t>transalinh13736@gmail.com</t>
+  </si>
+  <si>
+    <t>0964013736</t>
+  </si>
+  <si>
+    <t>Nguyễn Diệu Hương</t>
+  </si>
+  <si>
+    <t>19/03/2001</t>
+  </si>
+  <si>
+    <t>nguyendieuhuong62762@gmail.com</t>
+  </si>
+  <si>
+    <t>0904862762</t>
+  </si>
+  <si>
+    <t>Đặng Tấn Đạt</t>
+  </si>
+  <si>
+    <t>17/03/1998</t>
+  </si>
+  <si>
+    <t>đangtanđat95929@gmail.com</t>
+  </si>
+  <si>
+    <t>0899595929</t>
+  </si>
+  <si>
+    <t>Lý Trọng Anh</t>
+  </si>
+  <si>
+    <t>26/03/2003</t>
+  </si>
+  <si>
+    <t>lytronganh47130@gmail.com</t>
+  </si>
+  <si>
+    <t>0123047130</t>
+  </si>
+  <si>
+    <t>Đặng Nhi Ngọc</t>
+  </si>
+  <si>
+    <t>01/01/2004</t>
+  </si>
+  <si>
+    <t>đangnhingoc28153@gmail.com</t>
+  </si>
+  <si>
+    <t>0164128153</t>
+  </si>
+  <si>
+    <t>Lý Phúc Thiện</t>
+  </si>
+  <si>
+    <t>02/10/1998</t>
+  </si>
+  <si>
+    <t>lyphucthien13401@gmail.com</t>
+  </si>
+  <si>
+    <t>0688213401</t>
+  </si>
+  <si>
+    <t>Lý Bảo Tài</t>
+  </si>
+  <si>
+    <t>lybaotai96714@gmail.com</t>
+  </si>
+  <si>
+    <t>0855196714</t>
+  </si>
+  <si>
+    <t>Võ Thùy Hằng</t>
+  </si>
+  <si>
+    <t>13/09/2000</t>
+  </si>
+  <si>
+    <t>vothuyhang69982@gmail.com</t>
+  </si>
+  <si>
+    <t>0045069982</t>
+  </si>
+  <si>
+    <t>Nguyễn Trúc My</t>
+  </si>
+  <si>
+    <t>08/04/2001</t>
+  </si>
+  <si>
+    <t>nguyentrucmy60496@gmail.com</t>
+  </si>
+  <si>
+    <t>0133860496</t>
+  </si>
+  <si>
+    <t>Lê Nhật Khang</t>
+  </si>
+  <si>
+    <t>06/10/2002</t>
+  </si>
+  <si>
+    <t>lenhatkhang85093@gmail.com</t>
+  </si>
+  <si>
+    <t>0097885093</t>
+  </si>
+  <si>
+    <t>Nguyễn Sa Phương</t>
+  </si>
+  <si>
+    <t>22/08/1999</t>
+  </si>
+  <si>
+    <t>nguyensaphuong34505@gmail.com</t>
+  </si>
+  <si>
+    <t>0585034505</t>
+  </si>
+  <si>
+    <t>Lê Đức Bình</t>
+  </si>
+  <si>
+    <t>19/06/1998</t>
+  </si>
+  <si>
+    <t>leđucbinh09345@gmail.com</t>
+  </si>
+  <si>
+    <t>0704509345</t>
+  </si>
+  <si>
+    <t>Đặng Phương Hằng</t>
+  </si>
+  <si>
+    <t>15/04/2004</t>
+  </si>
+  <si>
+    <t>đangphuonghang59564@gmail.com</t>
+  </si>
+  <si>
+    <t>0812059564</t>
+  </si>
+  <si>
+    <t>Lê Tấn Cường</t>
+  </si>
+  <si>
+    <t>24/11/1999</t>
+  </si>
+  <si>
+    <t>letancuong29200@gmail.com</t>
+  </si>
+  <si>
+    <t>0762329200</t>
+  </si>
+  <si>
+    <t>Đàm Phúc Nam</t>
+  </si>
+  <si>
+    <t>14/12/2004</t>
+  </si>
+  <si>
+    <t>đamphucnam49347@gmail.com</t>
+  </si>
+  <si>
+    <t>0586349347</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Vũ</t>
+  </si>
+  <si>
+    <t>12/02/2000</t>
+  </si>
+  <si>
+    <t>nguyenvanvu39175@gmail.com</t>
+  </si>
+  <si>
+    <t>0605139175</t>
+  </si>
+  <si>
+    <t>Đàm Khánh Vy Hằng</t>
+  </si>
+  <si>
+    <t>24/04/1998</t>
+  </si>
+  <si>
+    <t>đamkhanhvyhang35385@gmail.com</t>
+  </si>
+  <si>
+    <t>0958435385</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Bình</t>
+  </si>
+  <si>
+    <t>13/01/1998</t>
+  </si>
+  <si>
+    <t>nguyentrongbinh68429@gmail.com</t>
+  </si>
+  <si>
+    <t>0930968429</t>
+  </si>
+  <si>
+    <t>Huỳnh Hiền Ánh</t>
+  </si>
+  <si>
+    <t>13/03/2004</t>
+  </si>
+  <si>
+    <t>huynhhienanh05602@gmail.com</t>
+  </si>
+  <si>
+    <t>0215605602</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Long</t>
+  </si>
+  <si>
+    <t>23/09/2004</t>
+  </si>
+  <si>
+    <t>nguyentronglong04887@gmail.com</t>
+  </si>
+  <si>
+    <t>0998504887</t>
+  </si>
+  <si>
+    <t>Đàm Thảo Nhi</t>
+  </si>
+  <si>
+    <t>15/11/2000</t>
+  </si>
+  <si>
+    <t>đamthaonhi26300@gmail.com</t>
+  </si>
+  <si>
+    <t>0584826300</t>
+  </si>
+  <si>
+    <t>Huỳnh Thanh Trúc Quỳnh</t>
+  </si>
+  <si>
+    <t>08/08/2001</t>
+  </si>
+  <si>
+    <t>huynhthanhtrucquynh49223@gmail.com</t>
+  </si>
+  <si>
+    <t>0098849223</t>
+  </si>
+  <si>
+    <t>Trần Thị Lan</t>
+  </si>
+  <si>
+    <t>03/12/2003</t>
+  </si>
+  <si>
+    <t>tranthilan11132@gmail.com</t>
+  </si>
+  <si>
+    <t>0221511132</t>
+  </si>
+  <si>
+    <t>Đặng Trọng Đạt</t>
+  </si>
+  <si>
+    <t>14/06/2003</t>
+  </si>
+  <si>
+    <t>đangtrongđat37191@gmail.com</t>
+  </si>
+  <si>
+    <t>0740937191</t>
+  </si>
+  <si>
+    <t>Đặng Nhật Hùng</t>
+  </si>
+  <si>
+    <t>13/08/1998</t>
+  </si>
+  <si>
+    <t>đangnhathung56506@gmail.com</t>
+  </si>
+  <si>
+    <t>0259056506</t>
+  </si>
+  <si>
+    <t>Võ Trọng Quân</t>
+  </si>
+  <si>
+    <t>07/02/1998</t>
+  </si>
+  <si>
+    <t>votrongquan54745@gmail.com</t>
+  </si>
+  <si>
+    <t>0145554745</t>
+  </si>
+  <si>
+    <t>Lê Minh Thắng</t>
+  </si>
+  <si>
+    <t>27/02/2003</t>
+  </si>
+  <si>
+    <t>leminhthang72141@gmail.com</t>
+  </si>
+  <si>
+    <t>0012372141</t>
+  </si>
+  <si>
+    <t>Huỳnh An Vy</t>
+  </si>
+  <si>
+    <t>23/01/2001</t>
+  </si>
+  <si>
+    <t>huynhanvy52755@gmail.com</t>
+  </si>
+  <si>
+    <t>0242152755</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Khang</t>
+  </si>
+  <si>
+    <t>07/09/2002</t>
+  </si>
+  <si>
+    <t>nguyenduykhang86961@gmail.com</t>
+  </si>
+  <si>
+    <t>0543286961</t>
+  </si>
+  <si>
+    <t>Trương Bảo Ngọc My</t>
+  </si>
+  <si>
+    <t>16/09/2000</t>
+  </si>
+  <si>
+    <t>truongbaongocmy54126@gmail.com</t>
+  </si>
+  <si>
+    <t>0738054126</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Phong</t>
+  </si>
+  <si>
+    <t>11/09/2004</t>
+  </si>
+  <si>
+    <t>nguyenminhphong64420@gmail.com</t>
+  </si>
+  <si>
+    <t>0226964420</t>
+  </si>
+  <si>
+    <t>Đàm Thảo Lan</t>
+  </si>
+  <si>
+    <t>05/09/2003</t>
+  </si>
+  <si>
+    <t>đamthaolan94190@gmail.com</t>
+  </si>
+  <si>
+    <t>0786994190</t>
+  </si>
+  <si>
+    <t>Lê Duy Khang</t>
+  </si>
+  <si>
+    <t>25/01/1999</t>
+  </si>
+  <si>
+    <t>leduykhang70791@gmail.com</t>
+  </si>
+  <si>
+    <t>0259370791</t>
+  </si>
+  <si>
+    <t>Lý Tường Hằng</t>
+  </si>
+  <si>
+    <t>05/12/1999</t>
+  </si>
+  <si>
+    <t>lytuonghang42636@gmail.com</t>
+  </si>
+  <si>
+    <t>0826542636</t>
+  </si>
+  <si>
+    <t>Trương Công Khang</t>
+  </si>
+  <si>
+    <t>15/09/2002</t>
+  </si>
+  <si>
+    <t>truongcongkhang18196@gmail.com</t>
+  </si>
+  <si>
+    <t>0701018196</t>
+  </si>
+  <si>
+    <t>Huỳnh Hữu Toàn</t>
+  </si>
+  <si>
+    <t>21/10/2003</t>
+  </si>
+  <si>
+    <t>huynhhuutoan54226@gmail.com</t>
+  </si>
+  <si>
+    <t>0824354226</t>
+  </si>
+  <si>
+    <t>Lý Diễm Hương</t>
+  </si>
+  <si>
+    <t>10/01/1998</t>
+  </si>
+  <si>
+    <t>lydiemhuong34015@gmail.com</t>
+  </si>
+  <si>
+    <t>0078034015</t>
+  </si>
+  <si>
+    <t>Lý Gia Cường</t>
+  </si>
+  <si>
+    <t>10/10/2003</t>
+  </si>
+  <si>
+    <t>lygiacuong94379@gmail.com</t>
+  </si>
+  <si>
+    <t>0823794379</t>
+  </si>
+  <si>
+    <t>Trần Gia Thắng</t>
+  </si>
+  <si>
+    <t>16/03/2001</t>
+  </si>
+  <si>
+    <t>trangiathang79547@gmail.com</t>
+  </si>
+  <si>
+    <t>0401679547</t>
+  </si>
+  <si>
+    <t>Huỳnh Hiền Phương</t>
+  </si>
+  <si>
+    <t>07/10/1999</t>
+  </si>
+  <si>
+    <t>huynhhienphuong72245@gmail.com</t>
+  </si>
+  <si>
+    <t>0594372245</t>
+  </si>
+  <si>
+    <t>Lê Quốc Khang</t>
+  </si>
+  <si>
+    <t>28/02/2004</t>
+  </si>
+  <si>
+    <t>lequockhang97355@gmail.com</t>
+  </si>
+  <si>
+    <t>0286997355</t>
+  </si>
+  <si>
+    <t>Võ Hạnh Mai</t>
+  </si>
+  <si>
+    <t>07/02/2001</t>
+  </si>
+  <si>
+    <t>vohanhmai07076@gmail.com</t>
+  </si>
+  <si>
+    <t>0703907076</t>
+  </si>
+  <si>
+    <t>Nguyễn Tấn Toàn</t>
+  </si>
+  <si>
+    <t>09/06/2004</t>
+  </si>
+  <si>
+    <t>nguyentantoan09834@gmail.com</t>
+  </si>
+  <si>
+    <t>0453309834</t>
+  </si>
+  <si>
+    <t>Đàm Kim Trang</t>
+  </si>
+  <si>
+    <t>02/02/2005</t>
+  </si>
+  <si>
+    <t>đamkimtrang57834@gmail.com</t>
+  </si>
+  <si>
+    <t>0139457834</t>
+  </si>
+  <si>
+    <t>Lê Kim Mai</t>
+  </si>
+  <si>
+    <t>08/07/1999</t>
+  </si>
+  <si>
+    <t>lekimmai20383@gmail.com</t>
+  </si>
+  <si>
+    <t>0202220383</t>
+  </si>
+  <si>
+    <t>Lý Uyên Ngọc</t>
+  </si>
+  <si>
+    <t>20/05/2001</t>
+  </si>
+  <si>
+    <t>lyuyenngoc79578@gmail.com</t>
+  </si>
+  <si>
+    <t>0235179578</t>
+  </si>
+  <si>
+    <t>Đặng Thanh Linh</t>
+  </si>
+  <si>
+    <t>07/05/2000</t>
+  </si>
+  <si>
+    <t>đangthanhlinh82017@gmail.com</t>
+  </si>
+  <si>
+    <t>0728982017</t>
+  </si>
+  <si>
+    <t>Lý Tấn Bình</t>
+  </si>
+  <si>
+    <t>08/10/1998</t>
+  </si>
+  <si>
+    <t>lytanbinh65554@gmail.com</t>
+  </si>
+  <si>
+    <t>0801965554</t>
+  </si>
+  <si>
+    <t>Trần Kim Ánh</t>
+  </si>
+  <si>
+    <t>20/06/2002</t>
+  </si>
+  <si>
+    <t>trankimanh94220@gmail.com</t>
+  </si>
+  <si>
+    <t>0310494220</t>
+  </si>
+  <si>
+    <t>Lý Trọng Thắng</t>
   </si>
   <si>
     <t>04/04/2004</t>
   </si>
   <si>
-    <t>nguyennhatđat65471@gmail.com</t>
-  </si>
-  <si>
-    <t>0061765471</t>
-  </si>
-  <si>
-    <t>Lê Nhật Thắng</t>
-  </si>
-  <si>
-    <t>12/02/1998</t>
-  </si>
-  <si>
-    <t>lenhatthang66563@gmail.com</t>
-  </si>
-  <si>
-    <t>0420266563</t>
-  </si>
-  <si>
-    <t>Lê Lan Quỳnh</t>
-  </si>
-  <si>
-    <t>24/05/2003</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>lelanquynh38750@gmail.com</t>
-  </si>
-  <si>
-    <t>0095338750</t>
-  </si>
-  <si>
-    <t>Đàm Khánh Quân</t>
-  </si>
-  <si>
-    <t>21/01/2001</t>
-  </si>
-  <si>
-    <t>đamkhanhquan00499@gmail.com</t>
-  </si>
-  <si>
-    <t>0979000499</t>
-  </si>
-  <si>
-    <t>Đàm Hoàng Hùng</t>
-  </si>
-  <si>
-    <t>28/02/2002</t>
-  </si>
-  <si>
-    <t>đamhoanghung98306@gmail.com</t>
-  </si>
-  <si>
-    <t>0423898306</t>
-  </si>
-  <si>
-    <t>Trương Thành Thiện</t>
-  </si>
-  <si>
-    <t>20/06/1998</t>
-  </si>
-  <si>
-    <t>truongthanhthien75695@gmail.com</t>
-  </si>
-  <si>
-    <t>0252775695</t>
-  </si>
-  <si>
-    <t>Nguyễn Duy Phong</t>
-  </si>
-  <si>
-    <t>25/10/2005</t>
-  </si>
-  <si>
-    <t>nguyenduyphong03468@gmail.com</t>
-  </si>
-  <si>
-    <t>0597303468</t>
-  </si>
-  <si>
-    <t>Trần Công Dũng</t>
-  </si>
-  <si>
-    <t>05/11/2002</t>
-  </si>
-  <si>
-    <t>trancongdung12205@gmail.com</t>
-  </si>
-  <si>
-    <t>0565112205</t>
-  </si>
-  <si>
-    <t>Lê Anh Vinh</t>
-  </si>
-  <si>
-    <t>15/09/2000</t>
-  </si>
-  <si>
-    <t>leanhvinh92610@gmail.com</t>
-  </si>
-  <si>
-    <t>0337892610</t>
-  </si>
-  <si>
-    <t>Nguyễn Bảo Phát</t>
-  </si>
-  <si>
-    <t>12/08/1999</t>
-  </si>
-  <si>
-    <t>nguyenbaophat86891@gmail.com</t>
-  </si>
-  <si>
-    <t>0798386891</t>
-  </si>
-  <si>
-    <t>Nguyễn Tuyết Mai Yến</t>
-  </si>
-  <si>
-    <t>23/01/2001</t>
-  </si>
-  <si>
-    <t>nguyentuyetmaiyen33421@gmail.com</t>
-  </si>
-  <si>
-    <t>0741833421</t>
-  </si>
-  <si>
-    <t>Đàm Đức Thắng</t>
-  </si>
-  <si>
-    <t>24/10/2001</t>
-  </si>
-  <si>
-    <t>đamđucthang12920@gmail.com</t>
-  </si>
-  <si>
-    <t>0608512920</t>
-  </si>
-  <si>
-    <t>Trần Uyên Lan</t>
+    <t>lytrongthang93481@gmail.com</t>
+  </si>
+  <si>
+    <t>0875093481</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Cường</t>
+  </si>
+  <si>
+    <t>14/07/2004</t>
+  </si>
+  <si>
+    <t>nguyenvancuong82527@gmail.com</t>
+  </si>
+  <si>
+    <t>0732882527</t>
+  </si>
+  <si>
+    <t>Huỳnh Mai Lan</t>
+  </si>
+  <si>
+    <t>26/01/2001</t>
+  </si>
+  <si>
+    <t>huynhmailan47324@gmail.com</t>
+  </si>
+  <si>
+    <t>0347047324</t>
+  </si>
+  <si>
+    <t>Đặng Trung Quân</t>
+  </si>
+  <si>
+    <t>10/12/2005</t>
+  </si>
+  <si>
+    <t>đangtrungquan14398@gmail.com</t>
+  </si>
+  <si>
+    <t>0355014398</t>
+  </si>
+  <si>
+    <t>Lý Diệu Hương</t>
+  </si>
+  <si>
+    <t>27/04/2005</t>
+  </si>
+  <si>
+    <t>lydieuhuong44981@gmail.com</t>
+  </si>
+  <si>
+    <t>0393244981</t>
+  </si>
+  <si>
+    <t>Trần Tấn Dũng</t>
+  </si>
+  <si>
+    <t>08/11/2005</t>
+  </si>
+  <si>
+    <t>trantandung44743@gmail.com</t>
+  </si>
+  <si>
+    <t>0597244743</t>
+  </si>
+  <si>
+    <t>Lý Ngọc Bích Hà</t>
+  </si>
+  <si>
+    <t>10/12/2003</t>
+  </si>
+  <si>
+    <t>lyngocbichha80285@gmail.com</t>
+  </si>
+  <si>
+    <t>0048080285</t>
+  </si>
+  <si>
+    <t>Đặng Nhi Quỳnh</t>
+  </si>
+  <si>
+    <t>16/10/2000</t>
+  </si>
+  <si>
+    <t>đangnhiquynh00543@gmail.com</t>
+  </si>
+  <si>
+    <t>0145100543</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Phát</t>
+  </si>
+  <si>
+    <t>13/03/2001</t>
+  </si>
+  <si>
+    <t>nguyenhoangphat91273@gmail.com</t>
+  </si>
+  <si>
+    <t>0898691273</t>
+  </si>
+  <si>
+    <t>Trần Hồng Yến</t>
   </si>
   <si>
     <t>09/01/2003</t>
   </si>
   <si>
-    <t>tranuyenlan03861@gmail.com</t>
-  </si>
-  <si>
-    <t>0811503861</t>
-  </si>
-  <si>
-    <t>Nguyễn Nhật Thắng</t>
-  </si>
-  <si>
-    <t>05/12/2000</t>
-  </si>
-  <si>
-    <t>nguyennhatthang15035@gmail.com</t>
-  </si>
-  <si>
-    <t>0027815035</t>
-  </si>
-  <si>
-    <t>Trương Đức Vũ</t>
-  </si>
-  <si>
-    <t>28/06/2004</t>
-  </si>
-  <si>
-    <t>truongđucvu69064@gmail.com</t>
-  </si>
-  <si>
-    <t>0719669064</t>
-  </si>
-  <si>
-    <t>Võ Minh Phát</t>
-  </si>
-  <si>
-    <t>14/07/2000</t>
-  </si>
-  <si>
-    <t>vominhphat30856@gmail.com</t>
-  </si>
-  <si>
-    <t>0949930856</t>
-  </si>
-  <si>
-    <t>Trương Ái Nhung</t>
-  </si>
-  <si>
-    <t>12/08/2000</t>
-  </si>
-  <si>
-    <t>truongainhung15518@gmail.com</t>
-  </si>
-  <si>
-    <t>0673315518</t>
-  </si>
-  <si>
-    <t>Nguyễn Nhật Hùng</t>
-  </si>
-  <si>
-    <t>21/02/1998</t>
-  </si>
-  <si>
-    <t>nguyennhathung80130@gmail.com</t>
-  </si>
-  <si>
-    <t>0586880130</t>
-  </si>
-  <si>
-    <t>Nguyễn Hiền Nhi</t>
-  </si>
-  <si>
-    <t>17/05/2002</t>
-  </si>
-  <si>
-    <t>nguyenhiennhi05428@gmail.com</t>
-  </si>
-  <si>
-    <t>0852205428</t>
-  </si>
-  <si>
-    <t>Huỳnh Tấn Toàn</t>
-  </si>
-  <si>
-    <t>11/07/2003</t>
-  </si>
-  <si>
-    <t>huynhtantoan88861@gmail.com</t>
-  </si>
-  <si>
-    <t>0984488861</t>
-  </si>
-  <si>
-    <t>Nguyễn Diễm Ngọc</t>
-  </si>
-  <si>
-    <t>28/01/2004</t>
-  </si>
-  <si>
-    <t>nguyendiemngoc06433@gmail.com</t>
-  </si>
-  <si>
-    <t>0281106433</t>
-  </si>
-  <si>
-    <t>Võ Thu Trang</t>
-  </si>
-  <si>
-    <t>18/05/2005</t>
-  </si>
-  <si>
-    <t>vothutrang10124@gmail.com</t>
-  </si>
-  <si>
-    <t>0817810124</t>
-  </si>
-  <si>
-    <t>Trần Phúc Cường</t>
-  </si>
-  <si>
-    <t>06/09/2005</t>
-  </si>
-  <si>
-    <t>tranphuccuong57658@gmail.com</t>
-  </si>
-  <si>
-    <t>0210757658</t>
-  </si>
-  <si>
-    <t>Huỳnh Văn Phong</t>
-  </si>
-  <si>
-    <t>19/12/2000</t>
-  </si>
-  <si>
-    <t>huynhvanphong37490@gmail.com</t>
-  </si>
-  <si>
-    <t>0719437490</t>
-  </si>
-  <si>
-    <t>Trương Ánh Ngọc</t>
-  </si>
-  <si>
-    <t>24/09/2002</t>
-  </si>
-  <si>
-    <t>truonganhngoc53223@gmail.com</t>
-  </si>
-  <si>
-    <t>0923353223</t>
-  </si>
-  <si>
-    <t>Võ Công Cường</t>
-  </si>
-  <si>
-    <t>16/12/2002</t>
-  </si>
-  <si>
-    <t>vocongcuong60752@gmail.com</t>
-  </si>
-  <si>
-    <t>0752360752</t>
-  </si>
-  <si>
-    <t>Trương Duy Sơn</t>
-  </si>
-  <si>
-    <t>12/09/1999</t>
-  </si>
-  <si>
-    <t>truongduyson62512@gmail.com</t>
-  </si>
-  <si>
-    <t>0090162512</t>
-  </si>
-  <si>
-    <t>Lê Bảo Ngọc Nhi</t>
-  </si>
-  <si>
-    <t>20/05/2005</t>
-  </si>
-  <si>
-    <t>lebaongocnhi96251@gmail.com</t>
-  </si>
-  <si>
-    <t>0347396251</t>
-  </si>
-  <si>
-    <t>Nguyễn Kim My</t>
-  </si>
-  <si>
-    <t>15/01/1998</t>
-  </si>
-  <si>
-    <t>nguyenkimmy01427@gmail.com</t>
-  </si>
-  <si>
-    <t>0768901427</t>
-  </si>
-  <si>
-    <t>Lý Trọng Long</t>
-  </si>
-  <si>
-    <t>16/03/1999</t>
-  </si>
-  <si>
-    <t>lytronglong37642@gmail.com</t>
-  </si>
-  <si>
-    <t>0165837642</t>
-  </si>
-  <si>
-    <t>Lý Anh Khang</t>
-  </si>
-  <si>
-    <t>10/06/2001</t>
-  </si>
-  <si>
-    <t>lyanhkhang37368@gmail.com</t>
-  </si>
-  <si>
-    <t>0155137368</t>
-  </si>
-  <si>
-    <t>Nguyễn Thùy Ngọc</t>
-  </si>
-  <si>
-    <t>25/12/2005</t>
-  </si>
-  <si>
-    <t>nguyenthuyngoc37466@gmail.com</t>
-  </si>
-  <si>
-    <t>0816737466</t>
-  </si>
-  <si>
-    <t>Trần Hải Toàn</t>
-  </si>
-  <si>
-    <t>11/05/2003</t>
-  </si>
-  <si>
-    <t>tranhaitoan78022@gmail.com</t>
-  </si>
-  <si>
-    <t>0110478022</t>
-  </si>
-  <si>
-    <t>Lê Thanh Trúc Nhi</t>
-  </si>
-  <si>
-    <t>05/11/2000</t>
-  </si>
-  <si>
-    <t>lethanhtrucnhi31815@gmail.com</t>
-  </si>
-  <si>
-    <t>0618931815</t>
-  </si>
-  <si>
-    <t>Võ Khánh Tuấn</t>
-  </si>
-  <si>
-    <t>28/09/1998</t>
-  </si>
-  <si>
-    <t>vokhanhtuan85780@gmail.com</t>
-  </si>
-  <si>
-    <t>0125185780</t>
-  </si>
-  <si>
-    <t>Nguyễn Trung Dũng</t>
-  </si>
-  <si>
-    <t>07/04/2005</t>
-  </si>
-  <si>
-    <t>nguyentrungdung88062@gmail.com</t>
-  </si>
-  <si>
-    <t>0574188062</t>
-  </si>
-  <si>
-    <t>Nguyễn Trúc Thảo</t>
-  </si>
-  <si>
-    <t>07/07/2005</t>
-  </si>
-  <si>
-    <t>nguyentructhao06475@gmail.com</t>
-  </si>
-  <si>
-    <t>0494906475</t>
-  </si>
-  <si>
-    <t>Lê Vân Vy</t>
-  </si>
-  <si>
-    <t>13/05/1999</t>
-  </si>
-  <si>
-    <t>levanvy96358@gmail.com</t>
-  </si>
-  <si>
-    <t>0013996358</t>
-  </si>
-  <si>
-    <t>CNTT_K2022_A</t>
+    <t>tranhongyen34444@gmail.com</t>
+  </si>
+  <si>
+    <t>0477334444</t>
+  </si>
+  <si>
+    <t>Trương Trọng Đạt</t>
+  </si>
+  <si>
+    <t>18/05/2002</t>
+  </si>
+  <si>
+    <t>truongtrongđat15542@gmail.com</t>
+  </si>
+  <si>
+    <t>0185515542</t>
+  </si>
+  <si>
+    <t>Võ Trọng Thắng</t>
+  </si>
+  <si>
+    <t>02/02/1999</t>
+  </si>
+  <si>
+    <t>votrongthang88150@gmail.com</t>
+  </si>
+  <si>
+    <t>0596688150</t>
+  </si>
+  <si>
+    <t>Trương Ánh Ngọc Yến</t>
+  </si>
+  <si>
+    <t>17/02/2001</t>
+  </si>
+  <si>
+    <t>truonganhngocyen84757@gmail.com</t>
+  </si>
+  <si>
+    <t>0909484757</t>
+  </si>
+  <si>
+    <t>Võ Tấn Phong</t>
+  </si>
+  <si>
+    <t>14/08/2000</t>
+  </si>
+  <si>
+    <t>votanphong94181@gmail.com</t>
+  </si>
+  <si>
+    <t>0450494181</t>
+  </si>
+  <si>
+    <t>Trần Trung Phong</t>
+  </si>
+  <si>
+    <t>27/10/2003</t>
+  </si>
+  <si>
+    <t>trantrungphong83861@gmail.com</t>
+  </si>
+  <si>
+    <t>0352483861</t>
+  </si>
+  <si>
+    <t>Lý Anh Anh</t>
+  </si>
+  <si>
+    <t>lyanhanh18790@gmail.com</t>
+  </si>
+  <si>
+    <t>0727918790</t>
+  </si>
+  <si>
+    <t>CNTT_K2024_A</t>
   </si>
 </sst>
 </file>
@@ -898,21 +1756,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K41"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
@@ -959,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>222001500</v>
+        <v>222001700</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -986,7 +1844,7 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -994,7 +1852,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>222001501</v>
+        <v>222001701</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1021,7 +1879,7 @@
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1029,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>222001502</v>
+        <v>222001702</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -1038,16 +1896,16 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -1056,7 +1914,7 @@
         <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1064,13 +1922,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>222001503</v>
+        <v>222001703</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1079,10 +1937,10 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -1091,7 +1949,7 @@
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1099,16 +1957,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>222001504</v>
+        <v>222001704</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -1126,7 +1984,7 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1134,7 +1992,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>222001505</v>
+        <v>222001705</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -1161,7 +2019,7 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1169,7 +2027,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>222001506</v>
+        <v>222001706</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
@@ -1178,7 +2036,7 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1196,7 +2054,7 @@
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1204,7 +2062,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>222001507</v>
+        <v>222001707</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -1231,7 +2089,7 @@
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1239,7 +2097,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>222001508</v>
+        <v>222001708</v>
       </c>
       <c r="C10" t="s">
         <v>48</v>
@@ -1266,7 +2124,7 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1274,7 +2132,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>222001509</v>
+        <v>222001709</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -1301,7 +2159,7 @@
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1309,7 +2167,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>222001510</v>
+        <v>222001710</v>
       </c>
       <c r="C12" t="s">
         <v>56</v>
@@ -1318,7 +2176,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1336,7 +2194,7 @@
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1344,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>222001511</v>
+        <v>222001711</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -1371,7 +2229,7 @@
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1379,7 +2237,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>222001512</v>
+        <v>222001712</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -1388,7 +2246,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1406,7 +2264,7 @@
         <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1414,7 +2272,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>222001513</v>
+        <v>222001713</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -1441,7 +2299,7 @@
         <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1449,7 +2307,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>222001514</v>
+        <v>222001714</v>
       </c>
       <c r="C16" t="s">
         <v>72</v>
@@ -1458,7 +2316,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -1476,7 +2334,7 @@
         <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1484,7 +2342,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>222001515</v>
+        <v>222001715</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
@@ -1493,7 +2351,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -1511,7 +2369,7 @@
         <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1519,7 +2377,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>222001516</v>
+        <v>222001716</v>
       </c>
       <c r="C18" t="s">
         <v>80</v>
@@ -1528,7 +2386,7 @@
         <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1546,7 +2404,7 @@
         <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1554,7 +2412,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>222001517</v>
+        <v>222001717</v>
       </c>
       <c r="C19" t="s">
         <v>84</v>
@@ -1581,7 +2439,7 @@
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1589,7 +2447,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>222001518</v>
+        <v>222001718</v>
       </c>
       <c r="C20" t="s">
         <v>88</v>
@@ -1598,7 +2456,7 @@
         <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -1616,7 +2474,7 @@
         <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1624,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>222001519</v>
+        <v>222001719</v>
       </c>
       <c r="C21" t="s">
         <v>92</v>
@@ -1651,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1659,7 +2517,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>222001520</v>
+        <v>222001720</v>
       </c>
       <c r="C22" t="s">
         <v>96</v>
@@ -1668,7 +2526,7 @@
         <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -1686,7 +2544,7 @@
         <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1694,7 +2552,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>222001521</v>
+        <v>222001721</v>
       </c>
       <c r="C23" t="s">
         <v>100</v>
@@ -1721,7 +2579,7 @@
         <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1729,7 +2587,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>222001522</v>
+        <v>222001722</v>
       </c>
       <c r="C24" t="s">
         <v>104</v>
@@ -1738,7 +2596,7 @@
         <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1756,7 +2614,7 @@
         <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1764,7 +2622,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>222001523</v>
+        <v>222001723</v>
       </c>
       <c r="C25" t="s">
         <v>108</v>
@@ -1773,7 +2631,7 @@
         <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -1791,7 +2649,7 @@
         <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1799,7 +2657,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>222001524</v>
+        <v>222001724</v>
       </c>
       <c r="C26" t="s">
         <v>112</v>
@@ -1826,7 +2684,7 @@
         <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1834,7 +2692,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>222001525</v>
+        <v>222001725</v>
       </c>
       <c r="C27" t="s">
         <v>116</v>
@@ -1843,7 +2701,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -1861,7 +2719,7 @@
         <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1869,7 +2727,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>222001526</v>
+        <v>222001726</v>
       </c>
       <c r="C28" t="s">
         <v>120</v>
@@ -1878,7 +2736,7 @@
         <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -1896,7 +2754,7 @@
         <v>18</v>
       </c>
       <c r="K28" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1904,7 +2762,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>222001527</v>
+        <v>222001727</v>
       </c>
       <c r="C29" t="s">
         <v>124</v>
@@ -1913,7 +2771,7 @@
         <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -1931,7 +2789,7 @@
         <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1939,7 +2797,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>222001528</v>
+        <v>222001728</v>
       </c>
       <c r="C30" t="s">
         <v>128</v>
@@ -1966,7 +2824,7 @@
         <v>18</v>
       </c>
       <c r="K30" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1974,7 +2832,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>222001529</v>
+        <v>222001729</v>
       </c>
       <c r="C31" t="s">
         <v>132</v>
@@ -1983,7 +2841,7 @@
         <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -2001,7 +2859,7 @@
         <v>18</v>
       </c>
       <c r="K31" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2009,7 +2867,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>222001530</v>
+        <v>222001730</v>
       </c>
       <c r="C32" t="s">
         <v>136</v>
@@ -2018,7 +2876,7 @@
         <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -2036,7 +2894,7 @@
         <v>18</v>
       </c>
       <c r="K32" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2044,7 +2902,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>222001531</v>
+        <v>222001731</v>
       </c>
       <c r="C33" t="s">
         <v>140</v>
@@ -2053,7 +2911,7 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -2071,7 +2929,7 @@
         <v>18</v>
       </c>
       <c r="K33" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2079,7 +2937,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>222001532</v>
+        <v>222001732</v>
       </c>
       <c r="C34" t="s">
         <v>144</v>
@@ -2106,7 +2964,7 @@
         <v>18</v>
       </c>
       <c r="K34" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2114,7 +2972,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>222001533</v>
+        <v>222001733</v>
       </c>
       <c r="C35" t="s">
         <v>148</v>
@@ -2123,7 +2981,7 @@
         <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -2141,7 +2999,7 @@
         <v>18</v>
       </c>
       <c r="K35" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2149,7 +3007,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>222001534</v>
+        <v>222001734</v>
       </c>
       <c r="C36" t="s">
         <v>152</v>
@@ -2158,7 +3016,7 @@
         <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -2176,7 +3034,7 @@
         <v>18</v>
       </c>
       <c r="K36" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2184,7 +3042,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>222001535</v>
+        <v>222001735</v>
       </c>
       <c r="C37" t="s">
         <v>156</v>
@@ -2193,7 +3051,7 @@
         <v>157</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -2211,7 +3069,7 @@
         <v>18</v>
       </c>
       <c r="K37" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2219,7 +3077,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>222001536</v>
+        <v>222001736</v>
       </c>
       <c r="C38" t="s">
         <v>160</v>
@@ -2246,7 +3104,7 @@
         <v>18</v>
       </c>
       <c r="K38" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2254,7 +3112,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>222001537</v>
+        <v>222001737</v>
       </c>
       <c r="C39" t="s">
         <v>164</v>
@@ -2263,7 +3121,7 @@
         <v>165</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -2281,7 +3139,7 @@
         <v>18</v>
       </c>
       <c r="K39" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2289,7 +3147,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>222001538</v>
+        <v>222001738</v>
       </c>
       <c r="C40" t="s">
         <v>168</v>
@@ -2298,7 +3156,7 @@
         <v>169</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -2316,7 +3174,7 @@
         <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2324,7 +3182,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>222001539</v>
+        <v>222001739</v>
       </c>
       <c r="C41" t="s">
         <v>172</v>
@@ -2333,7 +3191,7 @@
         <v>173</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -2351,7 +3209,2527 @@
         <v>18</v>
       </c>
       <c r="K41" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>222001740</v>
+      </c>
+      <c r="C42" t="s">
         <v>176</v>
+      </c>
+      <c r="D42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" t="s">
+        <v>179</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>222001741</v>
+      </c>
+      <c r="C43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>222001742</v>
+      </c>
+      <c r="C44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>186</v>
+      </c>
+      <c r="H44" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>222001743</v>
+      </c>
+      <c r="C45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>190</v>
+      </c>
+      <c r="H45" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>222001744</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" t="s">
+        <v>195</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>222001745</v>
+      </c>
+      <c r="C47" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H47" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>222001746</v>
+      </c>
+      <c r="C48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>202</v>
+      </c>
+      <c r="H48" t="s">
+        <v>203</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>222001747</v>
+      </c>
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49" t="s">
+        <v>207</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>222001748</v>
+      </c>
+      <c r="C50" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H50" t="s">
+        <v>211</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>222001749</v>
+      </c>
+      <c r="C51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" t="s">
+        <v>215</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>222001750</v>
+      </c>
+      <c r="C52" t="s">
+        <v>216</v>
+      </c>
+      <c r="D52" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>218</v>
+      </c>
+      <c r="H52" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>222001751</v>
+      </c>
+      <c r="C53" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>222</v>
+      </c>
+      <c r="H53" t="s">
+        <v>223</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>222001752</v>
+      </c>
+      <c r="C54" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54" t="s">
+        <v>225</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>226</v>
+      </c>
+      <c r="H54" t="s">
+        <v>227</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>222001753</v>
+      </c>
+      <c r="C55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>229</v>
+      </c>
+      <c r="H55" t="s">
+        <v>230</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>222001754</v>
+      </c>
+      <c r="C56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>233</v>
+      </c>
+      <c r="H56" t="s">
+        <v>234</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>222001755</v>
+      </c>
+      <c r="C57" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>237</v>
+      </c>
+      <c r="H57" t="s">
+        <v>238</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>222001756</v>
+      </c>
+      <c r="C58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>241</v>
+      </c>
+      <c r="H58" t="s">
+        <v>242</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>222001757</v>
+      </c>
+      <c r="C59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" t="s">
+        <v>244</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>245</v>
+      </c>
+      <c r="H59" t="s">
+        <v>246</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>222001758</v>
+      </c>
+      <c r="C60" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>249</v>
+      </c>
+      <c r="H60" t="s">
+        <v>250</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>222001759</v>
+      </c>
+      <c r="C61" t="s">
+        <v>251</v>
+      </c>
+      <c r="D61" t="s">
+        <v>252</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>253</v>
+      </c>
+      <c r="H61" t="s">
+        <v>254</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>222001760</v>
+      </c>
+      <c r="C62" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62" t="s">
+        <v>256</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>257</v>
+      </c>
+      <c r="H62" t="s">
+        <v>258</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>222001761</v>
+      </c>
+      <c r="C63" t="s">
+        <v>259</v>
+      </c>
+      <c r="D63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>261</v>
+      </c>
+      <c r="H63" t="s">
+        <v>262</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>222001762</v>
+      </c>
+      <c r="C64" t="s">
+        <v>263</v>
+      </c>
+      <c r="D64" t="s">
+        <v>264</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>265</v>
+      </c>
+      <c r="H64" t="s">
+        <v>266</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>222001763</v>
+      </c>
+      <c r="C65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" t="s">
+        <v>268</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>269</v>
+      </c>
+      <c r="H65" t="s">
+        <v>270</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>222001764</v>
+      </c>
+      <c r="C66" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>273</v>
+      </c>
+      <c r="H66" t="s">
+        <v>274</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>222001765</v>
+      </c>
+      <c r="C67" t="s">
+        <v>275</v>
+      </c>
+      <c r="D67" t="s">
+        <v>276</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>277</v>
+      </c>
+      <c r="H67" t="s">
+        <v>278</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>222001766</v>
+      </c>
+      <c r="C68" t="s">
+        <v>279</v>
+      </c>
+      <c r="D68" t="s">
+        <v>280</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>281</v>
+      </c>
+      <c r="H68" t="s">
+        <v>282</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>222001767</v>
+      </c>
+      <c r="C69" t="s">
+        <v>283</v>
+      </c>
+      <c r="D69" t="s">
+        <v>284</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>285</v>
+      </c>
+      <c r="H69" t="s">
+        <v>286</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>222001768</v>
+      </c>
+      <c r="C70" t="s">
+        <v>287</v>
+      </c>
+      <c r="D70" t="s">
+        <v>288</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>289</v>
+      </c>
+      <c r="H70" t="s">
+        <v>290</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>222001769</v>
+      </c>
+      <c r="C71" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" t="s">
+        <v>292</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>293</v>
+      </c>
+      <c r="H71" t="s">
+        <v>294</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>222001770</v>
+      </c>
+      <c r="C72" t="s">
+        <v>295</v>
+      </c>
+      <c r="D72" t="s">
+        <v>296</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>297</v>
+      </c>
+      <c r="H72" t="s">
+        <v>298</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>222001771</v>
+      </c>
+      <c r="C73" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" t="s">
+        <v>300</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>301</v>
+      </c>
+      <c r="H73" t="s">
+        <v>302</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>222001772</v>
+      </c>
+      <c r="C74" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" t="s">
+        <v>304</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>305</v>
+      </c>
+      <c r="H74" t="s">
+        <v>306</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>222001773</v>
+      </c>
+      <c r="C75" t="s">
+        <v>307</v>
+      </c>
+      <c r="D75" t="s">
+        <v>308</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>309</v>
+      </c>
+      <c r="H75" t="s">
+        <v>310</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>222001774</v>
+      </c>
+      <c r="C76" t="s">
+        <v>311</v>
+      </c>
+      <c r="D76" t="s">
+        <v>312</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>313</v>
+      </c>
+      <c r="H76" t="s">
+        <v>314</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>222001775</v>
+      </c>
+      <c r="C77" t="s">
+        <v>315</v>
+      </c>
+      <c r="D77" t="s">
+        <v>316</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>317</v>
+      </c>
+      <c r="H77" t="s">
+        <v>318</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>222001776</v>
+      </c>
+      <c r="C78" t="s">
+        <v>319</v>
+      </c>
+      <c r="D78" t="s">
+        <v>320</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>321</v>
+      </c>
+      <c r="H78" t="s">
+        <v>322</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>222001777</v>
+      </c>
+      <c r="C79" t="s">
+        <v>323</v>
+      </c>
+      <c r="D79" t="s">
+        <v>324</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>325</v>
+      </c>
+      <c r="H79" t="s">
+        <v>326</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>222001778</v>
+      </c>
+      <c r="C80" t="s">
+        <v>327</v>
+      </c>
+      <c r="D80" t="s">
+        <v>328</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>329</v>
+      </c>
+      <c r="H80" t="s">
+        <v>330</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>222001779</v>
+      </c>
+      <c r="C81" t="s">
+        <v>331</v>
+      </c>
+      <c r="D81" t="s">
+        <v>332</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>333</v>
+      </c>
+      <c r="H81" t="s">
+        <v>334</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>222001780</v>
+      </c>
+      <c r="C82" t="s">
+        <v>335</v>
+      </c>
+      <c r="D82" t="s">
+        <v>336</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>337</v>
+      </c>
+      <c r="H82" t="s">
+        <v>338</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>222001781</v>
+      </c>
+      <c r="C83" t="s">
+        <v>339</v>
+      </c>
+      <c r="D83" t="s">
+        <v>340</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>341</v>
+      </c>
+      <c r="H83" t="s">
+        <v>342</v>
+      </c>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>222001782</v>
+      </c>
+      <c r="C84" t="s">
+        <v>343</v>
+      </c>
+      <c r="D84" t="s">
+        <v>344</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>345</v>
+      </c>
+      <c r="H84" t="s">
+        <v>346</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>222001783</v>
+      </c>
+      <c r="C85" t="s">
+        <v>347</v>
+      </c>
+      <c r="D85" t="s">
+        <v>348</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>349</v>
+      </c>
+      <c r="H85" t="s">
+        <v>350</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>222001784</v>
+      </c>
+      <c r="C86" t="s">
+        <v>351</v>
+      </c>
+      <c r="D86" t="s">
+        <v>352</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>353</v>
+      </c>
+      <c r="H86" t="s">
+        <v>354</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>222001785</v>
+      </c>
+      <c r="C87" t="s">
+        <v>355</v>
+      </c>
+      <c r="D87" t="s">
+        <v>356</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>357</v>
+      </c>
+      <c r="H87" t="s">
+        <v>358</v>
+      </c>
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>222001786</v>
+      </c>
+      <c r="C88" t="s">
+        <v>359</v>
+      </c>
+      <c r="D88" t="s">
+        <v>360</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>361</v>
+      </c>
+      <c r="H88" t="s">
+        <v>362</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>222001787</v>
+      </c>
+      <c r="C89" t="s">
+        <v>363</v>
+      </c>
+      <c r="D89" t="s">
+        <v>364</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
+        <v>365</v>
+      </c>
+      <c r="H89" t="s">
+        <v>366</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>222001788</v>
+      </c>
+      <c r="C90" t="s">
+        <v>367</v>
+      </c>
+      <c r="D90" t="s">
+        <v>368</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
+        <v>369</v>
+      </c>
+      <c r="H90" t="s">
+        <v>370</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>222001789</v>
+      </c>
+      <c r="C91" t="s">
+        <v>371</v>
+      </c>
+      <c r="D91" t="s">
+        <v>372</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
+        <v>373</v>
+      </c>
+      <c r="H91" t="s">
+        <v>374</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>222001790</v>
+      </c>
+      <c r="C92" t="s">
+        <v>375</v>
+      </c>
+      <c r="D92" t="s">
+        <v>376</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>377</v>
+      </c>
+      <c r="H92" t="s">
+        <v>378</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>222001791</v>
+      </c>
+      <c r="C93" t="s">
+        <v>379</v>
+      </c>
+      <c r="D93" t="s">
+        <v>380</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
+        <v>381</v>
+      </c>
+      <c r="H93" t="s">
+        <v>382</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>222001792</v>
+      </c>
+      <c r="C94" t="s">
+        <v>383</v>
+      </c>
+      <c r="D94" t="s">
+        <v>384</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>385</v>
+      </c>
+      <c r="H94" t="s">
+        <v>386</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>222001793</v>
+      </c>
+      <c r="C95" t="s">
+        <v>387</v>
+      </c>
+      <c r="D95" t="s">
+        <v>388</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>389</v>
+      </c>
+      <c r="H95" t="s">
+        <v>390</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>222001794</v>
+      </c>
+      <c r="C96" t="s">
+        <v>391</v>
+      </c>
+      <c r="D96" t="s">
+        <v>392</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>393</v>
+      </c>
+      <c r="H96" t="s">
+        <v>394</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>222001795</v>
+      </c>
+      <c r="C97" t="s">
+        <v>395</v>
+      </c>
+      <c r="D97" t="s">
+        <v>396</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>397</v>
+      </c>
+      <c r="H97" t="s">
+        <v>398</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>222001796</v>
+      </c>
+      <c r="C98" t="s">
+        <v>399</v>
+      </c>
+      <c r="D98" t="s">
+        <v>400</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>401</v>
+      </c>
+      <c r="H98" t="s">
+        <v>402</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>222001797</v>
+      </c>
+      <c r="C99" t="s">
+        <v>403</v>
+      </c>
+      <c r="D99" t="s">
+        <v>404</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>405</v>
+      </c>
+      <c r="H99" t="s">
+        <v>406</v>
+      </c>
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>222001798</v>
+      </c>
+      <c r="C100" t="s">
+        <v>407</v>
+      </c>
+      <c r="D100" t="s">
+        <v>408</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>409</v>
+      </c>
+      <c r="H100" t="s">
+        <v>410</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>222001799</v>
+      </c>
+      <c r="C101" t="s">
+        <v>411</v>
+      </c>
+      <c r="D101" t="s">
+        <v>412</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>413</v>
+      </c>
+      <c r="H101" t="s">
+        <v>414</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>222001800</v>
+      </c>
+      <c r="C102" t="s">
+        <v>415</v>
+      </c>
+      <c r="D102" t="s">
+        <v>416</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
+        <v>417</v>
+      </c>
+      <c r="H102" t="s">
+        <v>418</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>222001801</v>
+      </c>
+      <c r="C103" t="s">
+        <v>419</v>
+      </c>
+      <c r="D103" t="s">
+        <v>420</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>421</v>
+      </c>
+      <c r="H103" t="s">
+        <v>422</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>222001802</v>
+      </c>
+      <c r="C104" t="s">
+        <v>423</v>
+      </c>
+      <c r="D104" t="s">
+        <v>424</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>425</v>
+      </c>
+      <c r="H104" t="s">
+        <v>426</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>222001803</v>
+      </c>
+      <c r="C105" t="s">
+        <v>427</v>
+      </c>
+      <c r="D105" t="s">
+        <v>428</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>429</v>
+      </c>
+      <c r="H105" t="s">
+        <v>430</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>222001804</v>
+      </c>
+      <c r="C106" t="s">
+        <v>431</v>
+      </c>
+      <c r="D106" t="s">
+        <v>432</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>433</v>
+      </c>
+      <c r="H106" t="s">
+        <v>434</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>222001805</v>
+      </c>
+      <c r="C107" t="s">
+        <v>435</v>
+      </c>
+      <c r="D107" t="s">
+        <v>436</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>437</v>
+      </c>
+      <c r="H107" t="s">
+        <v>438</v>
+      </c>
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107" t="s">
+        <v>18</v>
+      </c>
+      <c r="K107" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>222001806</v>
+      </c>
+      <c r="C108" t="s">
+        <v>439</v>
+      </c>
+      <c r="D108" t="s">
+        <v>440</v>
+      </c>
+      <c r="E108" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>441</v>
+      </c>
+      <c r="H108" t="s">
+        <v>442</v>
+      </c>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>222001807</v>
+      </c>
+      <c r="C109" t="s">
+        <v>443</v>
+      </c>
+      <c r="D109" t="s">
+        <v>444</v>
+      </c>
+      <c r="E109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>445</v>
+      </c>
+      <c r="H109" t="s">
+        <v>446</v>
+      </c>
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>222001808</v>
+      </c>
+      <c r="C110" t="s">
+        <v>447</v>
+      </c>
+      <c r="D110" t="s">
+        <v>448</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>449</v>
+      </c>
+      <c r="H110" t="s">
+        <v>450</v>
+      </c>
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>222001809</v>
+      </c>
+      <c r="C111" t="s">
+        <v>451</v>
+      </c>
+      <c r="D111" t="s">
+        <v>452</v>
+      </c>
+      <c r="E111" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>453</v>
+      </c>
+      <c r="H111" t="s">
+        <v>454</v>
+      </c>
+      <c r="I111" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>222001810</v>
+      </c>
+      <c r="C112" t="s">
+        <v>455</v>
+      </c>
+      <c r="D112" t="s">
+        <v>456</v>
+      </c>
+      <c r="E112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>457</v>
+      </c>
+      <c r="H112" t="s">
+        <v>458</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" t="s">
+        <v>18</v>
+      </c>
+      <c r="K112" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>222001811</v>
+      </c>
+      <c r="C113" t="s">
+        <v>459</v>
+      </c>
+      <c r="D113" t="s">
+        <v>368</v>
+      </c>
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>460</v>
+      </c>
+      <c r="H113" t="s">
+        <v>461</v>
+      </c>
+      <c r="I113" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" t="s">
+        <v>18</v>
+      </c>
+      <c r="K113" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/test/danh_sach_sinh_vien.xlsx
+++ b/test/danh_sach_sinh_vien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLSV-KQHT\Backend\quanlysinhvien-ketquahoctap_backend\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0424BC-A1BE-4A5A-B42C-7583F6548B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBC5C0F-1629-443A-9C16-9C6CFFF5F247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="341">
   <si>
     <t>STT</t>
   </si>
@@ -1039,376 +1039,10 @@
     <t>0826542636</t>
   </si>
   <si>
-    <t>Trương Công Khang</t>
-  </si>
-  <si>
-    <t>15/09/2002</t>
-  </si>
-  <si>
-    <t>truongcongkhang18196@gmail.com</t>
-  </si>
-  <si>
-    <t>0701018196</t>
-  </si>
-  <si>
-    <t>Huỳnh Hữu Toàn</t>
-  </si>
-  <si>
-    <t>21/10/2003</t>
-  </si>
-  <si>
-    <t>huynhhuutoan54226@gmail.com</t>
-  </si>
-  <si>
-    <t>0824354226</t>
-  </si>
-  <si>
-    <t>Lý Diễm Hương</t>
-  </si>
-  <si>
-    <t>10/01/1998</t>
-  </si>
-  <si>
-    <t>lydiemhuong34015@gmail.com</t>
-  </si>
-  <si>
-    <t>0078034015</t>
-  </si>
-  <si>
-    <t>Lý Gia Cường</t>
-  </si>
-  <si>
-    <t>10/10/2003</t>
-  </si>
-  <si>
-    <t>lygiacuong94379@gmail.com</t>
-  </si>
-  <si>
-    <t>0823794379</t>
-  </si>
-  <si>
-    <t>Trần Gia Thắng</t>
-  </si>
-  <si>
-    <t>16/03/2001</t>
-  </si>
-  <si>
-    <t>trangiathang79547@gmail.com</t>
-  </si>
-  <si>
-    <t>0401679547</t>
-  </si>
-  <si>
-    <t>Huỳnh Hiền Phương</t>
-  </si>
-  <si>
-    <t>07/10/1999</t>
-  </si>
-  <si>
-    <t>huynhhienphuong72245@gmail.com</t>
-  </si>
-  <si>
-    <t>0594372245</t>
-  </si>
-  <si>
-    <t>Lê Quốc Khang</t>
-  </si>
-  <si>
-    <t>28/02/2004</t>
-  </si>
-  <si>
-    <t>lequockhang97355@gmail.com</t>
-  </si>
-  <si>
-    <t>0286997355</t>
-  </si>
-  <si>
-    <t>Võ Hạnh Mai</t>
-  </si>
-  <si>
-    <t>07/02/2001</t>
-  </si>
-  <si>
-    <t>vohanhmai07076@gmail.com</t>
-  </si>
-  <si>
-    <t>0703907076</t>
-  </si>
-  <si>
-    <t>Nguyễn Tấn Toàn</t>
-  </si>
-  <si>
-    <t>09/06/2004</t>
-  </si>
-  <si>
-    <t>nguyentantoan09834@gmail.com</t>
-  </si>
-  <si>
-    <t>0453309834</t>
-  </si>
-  <si>
-    <t>Đàm Kim Trang</t>
-  </si>
-  <si>
-    <t>02/02/2005</t>
-  </si>
-  <si>
-    <t>đamkimtrang57834@gmail.com</t>
-  </si>
-  <si>
-    <t>0139457834</t>
-  </si>
-  <si>
-    <t>Lê Kim Mai</t>
-  </si>
-  <si>
-    <t>08/07/1999</t>
-  </si>
-  <si>
-    <t>lekimmai20383@gmail.com</t>
-  </si>
-  <si>
-    <t>0202220383</t>
-  </si>
-  <si>
-    <t>Lý Uyên Ngọc</t>
-  </si>
-  <si>
-    <t>20/05/2001</t>
-  </si>
-  <si>
-    <t>lyuyenngoc79578@gmail.com</t>
-  </si>
-  <si>
-    <t>0235179578</t>
-  </si>
-  <si>
-    <t>Đặng Thanh Linh</t>
-  </si>
-  <si>
-    <t>07/05/2000</t>
-  </si>
-  <si>
-    <t>đangthanhlinh82017@gmail.com</t>
-  </si>
-  <si>
-    <t>0728982017</t>
-  </si>
-  <si>
-    <t>Lý Tấn Bình</t>
-  </si>
-  <si>
-    <t>08/10/1998</t>
-  </si>
-  <si>
-    <t>lytanbinh65554@gmail.com</t>
-  </si>
-  <si>
-    <t>0801965554</t>
-  </si>
-  <si>
-    <t>Trần Kim Ánh</t>
-  </si>
-  <si>
-    <t>20/06/2002</t>
-  </si>
-  <si>
-    <t>trankimanh94220@gmail.com</t>
-  </si>
-  <si>
-    <t>0310494220</t>
-  </si>
-  <si>
-    <t>Lý Trọng Thắng</t>
-  </si>
-  <si>
-    <t>04/04/2004</t>
-  </si>
-  <si>
-    <t>lytrongthang93481@gmail.com</t>
-  </si>
-  <si>
-    <t>0875093481</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Cường</t>
-  </si>
-  <si>
-    <t>14/07/2004</t>
-  </si>
-  <si>
-    <t>nguyenvancuong82527@gmail.com</t>
-  </si>
-  <si>
-    <t>0732882527</t>
-  </si>
-  <si>
-    <t>Huỳnh Mai Lan</t>
-  </si>
-  <si>
-    <t>26/01/2001</t>
-  </si>
-  <si>
-    <t>huynhmailan47324@gmail.com</t>
-  </si>
-  <si>
-    <t>0347047324</t>
-  </si>
-  <si>
-    <t>Đặng Trung Quân</t>
-  </si>
-  <si>
-    <t>10/12/2005</t>
-  </si>
-  <si>
-    <t>đangtrungquan14398@gmail.com</t>
-  </si>
-  <si>
-    <t>0355014398</t>
-  </si>
-  <si>
-    <t>Lý Diệu Hương</t>
-  </si>
-  <si>
-    <t>27/04/2005</t>
-  </si>
-  <si>
-    <t>lydieuhuong44981@gmail.com</t>
-  </si>
-  <si>
-    <t>0393244981</t>
-  </si>
-  <si>
-    <t>Trần Tấn Dũng</t>
-  </si>
-  <si>
-    <t>08/11/2005</t>
-  </si>
-  <si>
-    <t>trantandung44743@gmail.com</t>
-  </si>
-  <si>
-    <t>0597244743</t>
-  </si>
-  <si>
-    <t>Lý Ngọc Bích Hà</t>
-  </si>
-  <si>
-    <t>10/12/2003</t>
-  </si>
-  <si>
-    <t>lyngocbichha80285@gmail.com</t>
-  </si>
-  <si>
-    <t>0048080285</t>
-  </si>
-  <si>
-    <t>Đặng Nhi Quỳnh</t>
-  </si>
-  <si>
-    <t>16/10/2000</t>
-  </si>
-  <si>
-    <t>đangnhiquynh00543@gmail.com</t>
-  </si>
-  <si>
-    <t>0145100543</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Phát</t>
-  </si>
-  <si>
-    <t>13/03/2001</t>
-  </si>
-  <si>
-    <t>nguyenhoangphat91273@gmail.com</t>
-  </si>
-  <si>
-    <t>0898691273</t>
-  </si>
-  <si>
-    <t>Trần Hồng Yến</t>
-  </si>
-  <si>
-    <t>09/01/2003</t>
-  </si>
-  <si>
-    <t>tranhongyen34444@gmail.com</t>
-  </si>
-  <si>
-    <t>0477334444</t>
-  </si>
-  <si>
-    <t>Trương Trọng Đạt</t>
-  </si>
-  <si>
-    <t>18/05/2002</t>
-  </si>
-  <si>
-    <t>truongtrongđat15542@gmail.com</t>
-  </si>
-  <si>
-    <t>0185515542</t>
-  </si>
-  <si>
-    <t>Võ Trọng Thắng</t>
-  </si>
-  <si>
-    <t>02/02/1999</t>
-  </si>
-  <si>
-    <t>votrongthang88150@gmail.com</t>
-  </si>
-  <si>
-    <t>0596688150</t>
-  </si>
-  <si>
-    <t>Trương Ánh Ngọc Yến</t>
-  </si>
-  <si>
-    <t>17/02/2001</t>
-  </si>
-  <si>
-    <t>truonganhngocyen84757@gmail.com</t>
-  </si>
-  <si>
-    <t>0909484757</t>
-  </si>
-  <si>
-    <t>Võ Tấn Phong</t>
-  </si>
-  <si>
-    <t>14/08/2000</t>
-  </si>
-  <si>
-    <t>votanphong94181@gmail.com</t>
-  </si>
-  <si>
-    <t>0450494181</t>
-  </si>
-  <si>
-    <t>Trần Trung Phong</t>
-  </si>
-  <si>
-    <t>27/10/2003</t>
-  </si>
-  <si>
-    <t>trantrungphong83861@gmail.com</t>
-  </si>
-  <si>
-    <t>0352483861</t>
-  </si>
-  <si>
-    <t>Lý Anh Anh</t>
-  </si>
-  <si>
-    <t>lyanhanh18790@gmail.com</t>
-  </si>
-  <si>
-    <t>0727918790</t>
-  </si>
-  <si>
-    <t>CNTT_K2024_A</t>
+    <t>CNTT_K2023_A</t>
+  </si>
+  <si>
+    <t>CNTT_K2023_B</t>
   </si>
 </sst>
 </file>
@@ -1756,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A83" sqref="A83:K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1478,7 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1879,7 +1513,7 @@
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1914,7 +1548,7 @@
         <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1949,7 +1583,7 @@
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1984,7 +1618,7 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2019,7 +1653,7 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2054,7 +1688,7 @@
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2089,7 +1723,7 @@
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2124,7 +1758,7 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2159,7 +1793,7 @@
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2194,7 +1828,7 @@
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2229,7 +1863,7 @@
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2264,7 +1898,7 @@
         <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2299,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2334,7 +1968,7 @@
         <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2369,7 +2003,7 @@
         <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2404,7 +2038,7 @@
         <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2439,7 +2073,7 @@
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2474,7 +2108,7 @@
         <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2509,7 +2143,7 @@
         <v>18</v>
       </c>
       <c r="K21" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2544,7 +2178,7 @@
         <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2579,7 +2213,7 @@
         <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2614,7 +2248,7 @@
         <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2649,7 +2283,7 @@
         <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2684,7 +2318,7 @@
         <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2719,7 +2353,7 @@
         <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2754,7 +2388,7 @@
         <v>18</v>
       </c>
       <c r="K28" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2789,7 +2423,7 @@
         <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2824,7 +2458,7 @@
         <v>18</v>
       </c>
       <c r="K30" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2859,7 +2493,7 @@
         <v>18</v>
       </c>
       <c r="K31" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2894,7 +2528,7 @@
         <v>18</v>
       </c>
       <c r="K32" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2929,7 +2563,7 @@
         <v>18</v>
       </c>
       <c r="K33" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2964,7 +2598,7 @@
         <v>18</v>
       </c>
       <c r="K34" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2999,7 +2633,7 @@
         <v>18</v>
       </c>
       <c r="K35" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3034,7 +2668,7 @@
         <v>18</v>
       </c>
       <c r="K36" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3069,7 +2703,7 @@
         <v>18</v>
       </c>
       <c r="K37" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3104,7 +2738,7 @@
         <v>18</v>
       </c>
       <c r="K38" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3139,7 +2773,7 @@
         <v>18</v>
       </c>
       <c r="K39" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3174,7 +2808,7 @@
         <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3209,7 +2843,7 @@
         <v>18</v>
       </c>
       <c r="K41" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3244,7 +2878,7 @@
         <v>18</v>
       </c>
       <c r="K42" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3279,7 +2913,7 @@
         <v>18</v>
       </c>
       <c r="K43" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3314,7 +2948,7 @@
         <v>18</v>
       </c>
       <c r="K44" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3349,7 +2983,7 @@
         <v>18</v>
       </c>
       <c r="K45" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3384,7 +3018,7 @@
         <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3419,7 +3053,7 @@
         <v>18</v>
       </c>
       <c r="K47" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3454,7 +3088,7 @@
         <v>18</v>
       </c>
       <c r="K48" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3489,7 +3123,7 @@
         <v>18</v>
       </c>
       <c r="K49" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3524,7 +3158,7 @@
         <v>18</v>
       </c>
       <c r="K50" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3559,7 +3193,7 @@
         <v>18</v>
       </c>
       <c r="K51" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3594,7 +3228,7 @@
         <v>18</v>
       </c>
       <c r="K52" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3629,7 +3263,7 @@
         <v>18</v>
       </c>
       <c r="K53" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3664,7 +3298,7 @@
         <v>18</v>
       </c>
       <c r="K54" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3699,7 +3333,7 @@
         <v>18</v>
       </c>
       <c r="K55" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3734,7 +3368,7 @@
         <v>18</v>
       </c>
       <c r="K56" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3769,7 +3403,7 @@
         <v>18</v>
       </c>
       <c r="K57" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3804,7 +3438,7 @@
         <v>18</v>
       </c>
       <c r="K58" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3839,7 +3473,7 @@
         <v>18</v>
       </c>
       <c r="K59" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3874,7 +3508,7 @@
         <v>18</v>
       </c>
       <c r="K60" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3909,7 +3543,7 @@
         <v>18</v>
       </c>
       <c r="K61" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3944,7 +3578,7 @@
         <v>18</v>
       </c>
       <c r="K62" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3979,7 +3613,7 @@
         <v>18</v>
       </c>
       <c r="K63" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4014,7 +3648,7 @@
         <v>18</v>
       </c>
       <c r="K64" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4049,7 +3683,7 @@
         <v>18</v>
       </c>
       <c r="K65" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4084,7 +3718,7 @@
         <v>18</v>
       </c>
       <c r="K66" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4119,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="K67" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4154,7 +3788,7 @@
         <v>18</v>
       </c>
       <c r="K68" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4189,7 +3823,7 @@
         <v>18</v>
       </c>
       <c r="K69" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4224,7 +3858,7 @@
         <v>18</v>
       </c>
       <c r="K70" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4259,7 +3893,7 @@
         <v>18</v>
       </c>
       <c r="K71" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4294,7 +3928,7 @@
         <v>18</v>
       </c>
       <c r="K72" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4329,7 +3963,7 @@
         <v>18</v>
       </c>
       <c r="K73" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4364,7 +3998,7 @@
         <v>18</v>
       </c>
       <c r="K74" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4399,7 +4033,7 @@
         <v>18</v>
       </c>
       <c r="K75" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4434,7 +4068,7 @@
         <v>18</v>
       </c>
       <c r="K76" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4469,7 +4103,7 @@
         <v>18</v>
       </c>
       <c r="K77" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4504,7 +4138,7 @@
         <v>18</v>
       </c>
       <c r="K78" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4539,7 +4173,7 @@
         <v>18</v>
       </c>
       <c r="K79" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4574,7 +4208,7 @@
         <v>18</v>
       </c>
       <c r="K80" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4609,7 +4243,7 @@
         <v>18</v>
       </c>
       <c r="K81" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4644,1092 +4278,7 @@
         <v>18</v>
       </c>
       <c r="K82" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>222001781</v>
-      </c>
-      <c r="C83" t="s">
-        <v>339</v>
-      </c>
-      <c r="D83" t="s">
         <v>340</v>
-      </c>
-      <c r="E83" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>341</v>
-      </c>
-      <c r="H83" t="s">
-        <v>342</v>
-      </c>
-      <c r="I83" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" t="s">
-        <v>18</v>
-      </c>
-      <c r="K83" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>222001782</v>
-      </c>
-      <c r="C84" t="s">
-        <v>343</v>
-      </c>
-      <c r="D84" t="s">
-        <v>344</v>
-      </c>
-      <c r="E84" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>345</v>
-      </c>
-      <c r="H84" t="s">
-        <v>346</v>
-      </c>
-      <c r="I84" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K84" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>222001783</v>
-      </c>
-      <c r="C85" t="s">
-        <v>347</v>
-      </c>
-      <c r="D85" t="s">
-        <v>348</v>
-      </c>
-      <c r="E85" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>349</v>
-      </c>
-      <c r="H85" t="s">
-        <v>350</v>
-      </c>
-      <c r="I85" t="s">
-        <v>17</v>
-      </c>
-      <c r="J85" t="s">
-        <v>18</v>
-      </c>
-      <c r="K85" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>222001784</v>
-      </c>
-      <c r="C86" t="s">
-        <v>351</v>
-      </c>
-      <c r="D86" t="s">
-        <v>352</v>
-      </c>
-      <c r="E86" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>353</v>
-      </c>
-      <c r="H86" t="s">
-        <v>354</v>
-      </c>
-      <c r="I86" t="s">
-        <v>17</v>
-      </c>
-      <c r="J86" t="s">
-        <v>18</v>
-      </c>
-      <c r="K86" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>222001785</v>
-      </c>
-      <c r="C87" t="s">
-        <v>355</v>
-      </c>
-      <c r="D87" t="s">
-        <v>356</v>
-      </c>
-      <c r="E87" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>357</v>
-      </c>
-      <c r="H87" t="s">
-        <v>358</v>
-      </c>
-      <c r="I87" t="s">
-        <v>17</v>
-      </c>
-      <c r="J87" t="s">
-        <v>18</v>
-      </c>
-      <c r="K87" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>222001786</v>
-      </c>
-      <c r="C88" t="s">
-        <v>359</v>
-      </c>
-      <c r="D88" t="s">
-        <v>360</v>
-      </c>
-      <c r="E88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>361</v>
-      </c>
-      <c r="H88" t="s">
-        <v>362</v>
-      </c>
-      <c r="I88" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88" t="s">
-        <v>18</v>
-      </c>
-      <c r="K88" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>222001787</v>
-      </c>
-      <c r="C89" t="s">
-        <v>363</v>
-      </c>
-      <c r="D89" t="s">
-        <v>364</v>
-      </c>
-      <c r="E89" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>365</v>
-      </c>
-      <c r="H89" t="s">
-        <v>366</v>
-      </c>
-      <c r="I89" t="s">
-        <v>17</v>
-      </c>
-      <c r="J89" t="s">
-        <v>18</v>
-      </c>
-      <c r="K89" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>222001788</v>
-      </c>
-      <c r="C90" t="s">
-        <v>367</v>
-      </c>
-      <c r="D90" t="s">
-        <v>368</v>
-      </c>
-      <c r="E90" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>369</v>
-      </c>
-      <c r="H90" t="s">
-        <v>370</v>
-      </c>
-      <c r="I90" t="s">
-        <v>17</v>
-      </c>
-      <c r="J90" t="s">
-        <v>18</v>
-      </c>
-      <c r="K90" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>222001789</v>
-      </c>
-      <c r="C91" t="s">
-        <v>371</v>
-      </c>
-      <c r="D91" t="s">
-        <v>372</v>
-      </c>
-      <c r="E91" t="s">
-        <v>25</v>
-      </c>
-      <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>373</v>
-      </c>
-      <c r="H91" t="s">
-        <v>374</v>
-      </c>
-      <c r="I91" t="s">
-        <v>17</v>
-      </c>
-      <c r="J91" t="s">
-        <v>18</v>
-      </c>
-      <c r="K91" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>222001790</v>
-      </c>
-      <c r="C92" t="s">
-        <v>375</v>
-      </c>
-      <c r="D92" t="s">
-        <v>376</v>
-      </c>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>377</v>
-      </c>
-      <c r="H92" t="s">
-        <v>378</v>
-      </c>
-      <c r="I92" t="s">
-        <v>17</v>
-      </c>
-      <c r="J92" t="s">
-        <v>18</v>
-      </c>
-      <c r="K92" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>222001791</v>
-      </c>
-      <c r="C93" t="s">
-        <v>379</v>
-      </c>
-      <c r="D93" t="s">
-        <v>380</v>
-      </c>
-      <c r="E93" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>381</v>
-      </c>
-      <c r="H93" t="s">
-        <v>382</v>
-      </c>
-      <c r="I93" t="s">
-        <v>17</v>
-      </c>
-      <c r="J93" t="s">
-        <v>18</v>
-      </c>
-      <c r="K93" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>222001792</v>
-      </c>
-      <c r="C94" t="s">
-        <v>383</v>
-      </c>
-      <c r="D94" t="s">
-        <v>384</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>385</v>
-      </c>
-      <c r="H94" t="s">
-        <v>386</v>
-      </c>
-      <c r="I94" t="s">
-        <v>17</v>
-      </c>
-      <c r="J94" t="s">
-        <v>18</v>
-      </c>
-      <c r="K94" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>222001793</v>
-      </c>
-      <c r="C95" t="s">
-        <v>387</v>
-      </c>
-      <c r="D95" t="s">
-        <v>388</v>
-      </c>
-      <c r="E95" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>389</v>
-      </c>
-      <c r="H95" t="s">
-        <v>390</v>
-      </c>
-      <c r="I95" t="s">
-        <v>17</v>
-      </c>
-      <c r="J95" t="s">
-        <v>18</v>
-      </c>
-      <c r="K95" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>222001794</v>
-      </c>
-      <c r="C96" t="s">
-        <v>391</v>
-      </c>
-      <c r="D96" t="s">
-        <v>392</v>
-      </c>
-      <c r="E96" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>393</v>
-      </c>
-      <c r="H96" t="s">
-        <v>394</v>
-      </c>
-      <c r="I96" t="s">
-        <v>17</v>
-      </c>
-      <c r="J96" t="s">
-        <v>18</v>
-      </c>
-      <c r="K96" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>222001795</v>
-      </c>
-      <c r="C97" t="s">
-        <v>395</v>
-      </c>
-      <c r="D97" t="s">
-        <v>396</v>
-      </c>
-      <c r="E97" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>397</v>
-      </c>
-      <c r="H97" t="s">
-        <v>398</v>
-      </c>
-      <c r="I97" t="s">
-        <v>17</v>
-      </c>
-      <c r="J97" t="s">
-        <v>18</v>
-      </c>
-      <c r="K97" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>222001796</v>
-      </c>
-      <c r="C98" t="s">
-        <v>399</v>
-      </c>
-      <c r="D98" t="s">
-        <v>400</v>
-      </c>
-      <c r="E98" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>401</v>
-      </c>
-      <c r="H98" t="s">
-        <v>402</v>
-      </c>
-      <c r="I98" t="s">
-        <v>17</v>
-      </c>
-      <c r="J98" t="s">
-        <v>18</v>
-      </c>
-      <c r="K98" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>222001797</v>
-      </c>
-      <c r="C99" t="s">
-        <v>403</v>
-      </c>
-      <c r="D99" t="s">
-        <v>404</v>
-      </c>
-      <c r="E99" t="s">
-        <v>25</v>
-      </c>
-      <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>405</v>
-      </c>
-      <c r="H99" t="s">
-        <v>406</v>
-      </c>
-      <c r="I99" t="s">
-        <v>17</v>
-      </c>
-      <c r="J99" t="s">
-        <v>18</v>
-      </c>
-      <c r="K99" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>222001798</v>
-      </c>
-      <c r="C100" t="s">
-        <v>407</v>
-      </c>
-      <c r="D100" t="s">
-        <v>408</v>
-      </c>
-      <c r="E100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>409</v>
-      </c>
-      <c r="H100" t="s">
-        <v>410</v>
-      </c>
-      <c r="I100" t="s">
-        <v>17</v>
-      </c>
-      <c r="J100" t="s">
-        <v>18</v>
-      </c>
-      <c r="K100" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>222001799</v>
-      </c>
-      <c r="C101" t="s">
-        <v>411</v>
-      </c>
-      <c r="D101" t="s">
-        <v>412</v>
-      </c>
-      <c r="E101" t="s">
-        <v>25</v>
-      </c>
-      <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>413</v>
-      </c>
-      <c r="H101" t="s">
-        <v>414</v>
-      </c>
-      <c r="I101" t="s">
-        <v>17</v>
-      </c>
-      <c r="J101" t="s">
-        <v>18</v>
-      </c>
-      <c r="K101" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>222001800</v>
-      </c>
-      <c r="C102" t="s">
-        <v>415</v>
-      </c>
-      <c r="D102" t="s">
-        <v>416</v>
-      </c>
-      <c r="E102" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>417</v>
-      </c>
-      <c r="H102" t="s">
-        <v>418</v>
-      </c>
-      <c r="I102" t="s">
-        <v>17</v>
-      </c>
-      <c r="J102" t="s">
-        <v>18</v>
-      </c>
-      <c r="K102" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>222001801</v>
-      </c>
-      <c r="C103" t="s">
-        <v>419</v>
-      </c>
-      <c r="D103" t="s">
-        <v>420</v>
-      </c>
-      <c r="E103" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>421</v>
-      </c>
-      <c r="H103" t="s">
-        <v>422</v>
-      </c>
-      <c r="I103" t="s">
-        <v>17</v>
-      </c>
-      <c r="J103" t="s">
-        <v>18</v>
-      </c>
-      <c r="K103" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>222001802</v>
-      </c>
-      <c r="C104" t="s">
-        <v>423</v>
-      </c>
-      <c r="D104" t="s">
-        <v>424</v>
-      </c>
-      <c r="E104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>425</v>
-      </c>
-      <c r="H104" t="s">
-        <v>426</v>
-      </c>
-      <c r="I104" t="s">
-        <v>17</v>
-      </c>
-      <c r="J104" t="s">
-        <v>18</v>
-      </c>
-      <c r="K104" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>222001803</v>
-      </c>
-      <c r="C105" t="s">
-        <v>427</v>
-      </c>
-      <c r="D105" t="s">
-        <v>428</v>
-      </c>
-      <c r="E105" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>429</v>
-      </c>
-      <c r="H105" t="s">
-        <v>430</v>
-      </c>
-      <c r="I105" t="s">
-        <v>17</v>
-      </c>
-      <c r="J105" t="s">
-        <v>18</v>
-      </c>
-      <c r="K105" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>222001804</v>
-      </c>
-      <c r="C106" t="s">
-        <v>431</v>
-      </c>
-      <c r="D106" t="s">
-        <v>432</v>
-      </c>
-      <c r="E106" t="s">
-        <v>25</v>
-      </c>
-      <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>433</v>
-      </c>
-      <c r="H106" t="s">
-        <v>434</v>
-      </c>
-      <c r="I106" t="s">
-        <v>17</v>
-      </c>
-      <c r="J106" t="s">
-        <v>18</v>
-      </c>
-      <c r="K106" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>222001805</v>
-      </c>
-      <c r="C107" t="s">
-        <v>435</v>
-      </c>
-      <c r="D107" t="s">
-        <v>436</v>
-      </c>
-      <c r="E107" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>437</v>
-      </c>
-      <c r="H107" t="s">
-        <v>438</v>
-      </c>
-      <c r="I107" t="s">
-        <v>17</v>
-      </c>
-      <c r="J107" t="s">
-        <v>18</v>
-      </c>
-      <c r="K107" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <v>222001806</v>
-      </c>
-      <c r="C108" t="s">
-        <v>439</v>
-      </c>
-      <c r="D108" t="s">
-        <v>440</v>
-      </c>
-      <c r="E108" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>441</v>
-      </c>
-      <c r="H108" t="s">
-        <v>442</v>
-      </c>
-      <c r="I108" t="s">
-        <v>17</v>
-      </c>
-      <c r="J108" t="s">
-        <v>18</v>
-      </c>
-      <c r="K108" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>222001807</v>
-      </c>
-      <c r="C109" t="s">
-        <v>443</v>
-      </c>
-      <c r="D109" t="s">
-        <v>444</v>
-      </c>
-      <c r="E109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>445</v>
-      </c>
-      <c r="H109" t="s">
-        <v>446</v>
-      </c>
-      <c r="I109" t="s">
-        <v>17</v>
-      </c>
-      <c r="J109" t="s">
-        <v>18</v>
-      </c>
-      <c r="K109" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>222001808</v>
-      </c>
-      <c r="C110" t="s">
-        <v>447</v>
-      </c>
-      <c r="D110" t="s">
-        <v>448</v>
-      </c>
-      <c r="E110" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>449</v>
-      </c>
-      <c r="H110" t="s">
-        <v>450</v>
-      </c>
-      <c r="I110" t="s">
-        <v>17</v>
-      </c>
-      <c r="J110" t="s">
-        <v>18</v>
-      </c>
-      <c r="K110" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111">
-        <v>222001809</v>
-      </c>
-      <c r="C111" t="s">
-        <v>451</v>
-      </c>
-      <c r="D111" t="s">
-        <v>452</v>
-      </c>
-      <c r="E111" t="s">
-        <v>25</v>
-      </c>
-      <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>453</v>
-      </c>
-      <c r="H111" t="s">
-        <v>454</v>
-      </c>
-      <c r="I111" t="s">
-        <v>17</v>
-      </c>
-      <c r="J111" t="s">
-        <v>18</v>
-      </c>
-      <c r="K111" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112">
-        <v>222001810</v>
-      </c>
-      <c r="C112" t="s">
-        <v>455</v>
-      </c>
-      <c r="D112" t="s">
-        <v>456</v>
-      </c>
-      <c r="E112" t="s">
-        <v>25</v>
-      </c>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>457</v>
-      </c>
-      <c r="H112" t="s">
-        <v>458</v>
-      </c>
-      <c r="I112" t="s">
-        <v>17</v>
-      </c>
-      <c r="J112" t="s">
-        <v>18</v>
-      </c>
-      <c r="K112" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113">
-        <v>222001811</v>
-      </c>
-      <c r="C113" t="s">
-        <v>459</v>
-      </c>
-      <c r="D113" t="s">
-        <v>368</v>
-      </c>
-      <c r="E113" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>460</v>
-      </c>
-      <c r="H113" t="s">
-        <v>461</v>
-      </c>
-      <c r="I113" t="s">
-        <v>17</v>
-      </c>
-      <c r="J113" t="s">
-        <v>18</v>
-      </c>
-      <c r="K113" t="s">
-        <v>462</v>
       </c>
     </row>
   </sheetData>
